--- a/data/trans_orig/P64B-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P64B-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CDB711ED-9CDD-4422-909F-972D176774D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C69530E-C44E-4476-B6FD-F407CE19B95E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B5A39DAB-B0DC-4DD0-8609-90F4F4E170A0}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{04E1564A-EA18-49D5-A8A8-24B16EC2F560}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1551" uniqueCount="890">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1764" uniqueCount="887">
   <si>
     <t>Población según el tipo de jornada que tiene en su trabajo en 2007 (Tasa respuesta: 42,41%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Otra posibilidad</t>
@@ -250,7 +250,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>4,88%</t>
@@ -415,7 +415,7 @@
     <t>43,88%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>8,52%</t>
@@ -577,7 +577,7 @@
     <t>40,85%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>5,05%</t>
@@ -727,7 +727,7 @@
     <t>47,01%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>8,48%</t>
@@ -871,58 +871,55 @@
     <t>43,72%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>47,87%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>35,88%</t>
   </si>
   <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>42,67%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>85,21%</t>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
   </si>
   <si>
     <t>36,25%</t>
   </si>
   <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>52,13%</t>
+    <t>22,85%</t>
   </si>
   <si>
     <t>30,15%</t>
   </si>
   <si>
-    <t>42,6%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>84,72%</t>
+    <t>48,99%</t>
   </si>
   <si>
     <t>33,97%</t>
   </si>
   <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>59,48%</t>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>77,17%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>66,76%</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
   </si>
   <si>
     <t>6,2%</t>
@@ -2467,9 +2464,6 @@
     <t>13,27%</t>
   </si>
   <si>
-    <t>26,2%</t>
-  </si>
-  <si>
     <t>16,51%</t>
   </si>
   <si>
@@ -2557,10 +2551,10 @@
     <t>30,57%</t>
   </si>
   <si>
-    <t>38,2%</t>
-  </si>
-  <si>
-    <t>84,82%</t>
+    <t>44,05%</t>
+  </si>
+  <si>
+    <t>83,42%</t>
   </si>
   <si>
     <t>22,79%</t>
@@ -2569,16 +2563,16 @@
     <t>82,18%</t>
   </si>
   <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>62,75%</t>
-  </si>
-  <si>
-    <t>61,8%</t>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>64,24%</t>
+  </si>
+  <si>
+    <t>55,95%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
   </si>
   <si>
     <t>77,21%</t>
@@ -2587,13 +2581,10 @@
     <t>17,82%</t>
   </si>
   <si>
-    <t>68,96%</t>
-  </si>
-  <si>
-    <t>37,25%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
+    <t>66,58%</t>
+  </si>
+  <si>
+    <t>35,76%</t>
   </si>
   <si>
     <t>10,88%</t>
@@ -3119,8 +3110,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31566187-C332-4C9E-82A4-0A4902AD16DC}">
-  <dimension ref="A1:Q53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93202AD8-956C-4C5E-8C92-80800AE15DB3}">
+  <dimension ref="A1:Q60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5032,19 +5023,19 @@
         <v>10</v>
       </c>
       <c r="C39" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D39" s="7">
-        <v>1649</v>
+        <v>0</v>
       </c>
       <c r="E39" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="G39" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>279</v>
       </c>
       <c r="H39" s="7">
         <v>1</v>
@@ -5053,28 +5044,28 @@
         <v>947</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K39" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M39" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N39" s="7">
-        <v>2596</v>
+        <v>947</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>281</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>282</v>
+        <v>32</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -5095,7 +5086,7 @@
         <v>199</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="H40" s="7">
         <v>0</v>
@@ -5110,7 +5101,7 @@
         <v>199</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="M40" s="7">
         <v>0</v>
@@ -5125,7 +5116,7 @@
         <v>199</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -5146,7 +5137,7 @@
         <v>199</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="H41" s="7">
         <v>0</v>
@@ -5161,7 +5152,7 @@
         <v>199</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="M41" s="7">
         <v>0</v>
@@ -5176,7 +5167,7 @@
         <v>199</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -5197,7 +5188,7 @@
         <v>199</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="H42" s="7">
         <v>0</v>
@@ -5212,7 +5203,7 @@
         <v>199</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="M42" s="7">
         <v>0</v>
@@ -5227,7 +5218,7 @@
         <v>199</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -5236,19 +5227,19 @@
         <v>49</v>
       </c>
       <c r="C43" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D43" s="7">
-        <v>1797</v>
+        <v>975</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>32</v>
+        <v>284</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>279</v>
+        <v>69</v>
       </c>
       <c r="H43" s="7">
         <v>1</v>
@@ -5257,28 +5248,28 @@
         <v>796</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="K43" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M43" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N43" s="7">
-        <v>2592</v>
+        <v>1771</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>290</v>
+        <v>32</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -5299,7 +5290,7 @@
         <v>199</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="H44" s="7">
         <v>1</v>
@@ -5308,13 +5299,13 @@
         <v>897</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="K44" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M44" s="7">
         <v>1</v>
@@ -5323,13 +5314,13 @@
         <v>897</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="P44" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -5338,10 +5329,10 @@
         <v>3</v>
       </c>
       <c r="C45" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D45" s="7">
-        <v>3446</v>
+        <v>975</v>
       </c>
       <c r="E45" s="7" t="s">
         <v>69</v>
@@ -5368,10 +5359,10 @@
         <v>69</v>
       </c>
       <c r="M45" s="7">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="N45" s="7">
-        <v>6085</v>
+        <v>3614</v>
       </c>
       <c r="O45" s="7" t="s">
         <v>69</v>
@@ -5385,55 +5376,53 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>3</v>
+        <v>290</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C46" s="7">
-        <v>109</v>
+        <v>2</v>
       </c>
       <c r="D46" s="7">
-        <v>116198</v>
+        <v>1650</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>296</v>
+        <v>32</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
       <c r="H46" s="7">
-        <v>45</v>
-      </c>
-      <c r="I46" s="7">
-        <v>50339</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" s="7"/>
       <c r="J46" s="7" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>210</v>
+        <v>292</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="M46" s="7">
-        <v>154</v>
+        <v>2</v>
       </c>
       <c r="N46" s="7">
-        <v>166537</v>
+        <v>1650</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>301</v>
+        <v>32</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>302</v>
+        <v>280</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -5442,49 +5431,47 @@
         <v>20</v>
       </c>
       <c r="C47" s="7">
-        <v>318</v>
+        <v>0</v>
       </c>
       <c r="D47" s="7">
-        <v>336513</v>
+        <v>0</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>303</v>
+        <v>32</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>304</v>
+        <v>199</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>305</v>
+        <v>282</v>
       </c>
       <c r="H47" s="7">
-        <v>185</v>
-      </c>
-      <c r="I47" s="7">
-        <v>195345</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" s="7"/>
       <c r="J47" s="7" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>135</v>
+        <v>292</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="M47" s="7">
-        <v>503</v>
+        <v>0</v>
       </c>
       <c r="N47" s="7">
-        <v>531858</v>
+        <v>0</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>308</v>
+        <v>32</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>309</v>
+        <v>199</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>310</v>
+        <v>282</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -5493,49 +5480,47 @@
         <v>30</v>
       </c>
       <c r="C48" s="7">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="D48" s="7">
-        <v>37536</v>
+        <v>0</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>311</v>
+        <v>32</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>312</v>
+        <v>199</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>313</v>
+        <v>282</v>
       </c>
       <c r="H48" s="7">
-        <v>11</v>
-      </c>
-      <c r="I48" s="7">
-        <v>12506</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" s="7"/>
       <c r="J48" s="7" t="s">
-        <v>18</v>
+        <v>292</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>314</v>
+        <v>292</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>315</v>
+        <v>292</v>
       </c>
       <c r="M48" s="7">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="N48" s="7">
-        <v>50042</v>
+        <v>0</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>316</v>
+        <v>32</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>250</v>
+        <v>199</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>317</v>
+        <v>282</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -5544,49 +5529,47 @@
         <v>40</v>
       </c>
       <c r="C49" s="7">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="D49" s="7">
-        <v>36464</v>
+        <v>0</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>318</v>
+        <v>32</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>319</v>
+        <v>199</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>320</v>
+        <v>282</v>
       </c>
       <c r="H49" s="7">
-        <v>56</v>
-      </c>
-      <c r="I49" s="7">
-        <v>58679</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" s="7"/>
       <c r="J49" s="7" t="s">
-        <v>321</v>
+        <v>292</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>322</v>
+        <v>292</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>323</v>
+        <v>292</v>
       </c>
       <c r="M49" s="7">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="N49" s="7">
-        <v>95143</v>
+        <v>0</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>324</v>
+        <v>32</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>325</v>
+        <v>282</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -5595,49 +5578,47 @@
         <v>49</v>
       </c>
       <c r="C50" s="7">
-        <v>495</v>
+        <v>1</v>
       </c>
       <c r="D50" s="7">
-        <v>511318</v>
+        <v>821</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>326</v>
+        <v>293</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>327</v>
+        <v>32</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>328</v>
+        <v>280</v>
       </c>
       <c r="H50" s="7">
-        <v>344</v>
-      </c>
-      <c r="I50" s="7">
-        <v>355977</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" s="7"/>
       <c r="J50" s="7" t="s">
-        <v>329</v>
+        <v>292</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>330</v>
+        <v>292</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>331</v>
+        <v>292</v>
       </c>
       <c r="M50" s="7">
-        <v>839</v>
+        <v>1</v>
       </c>
       <c r="N50" s="7">
-        <v>867295</v>
+        <v>821</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>332</v>
+        <v>293</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>333</v>
+        <v>32</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>334</v>
+        <v>280</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -5646,49 +5627,47 @@
         <v>59</v>
       </c>
       <c r="C51" s="7">
-        <v>805</v>
+        <v>0</v>
       </c>
       <c r="D51" s="7">
-        <v>836568</v>
+        <v>0</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>335</v>
+        <v>32</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>336</v>
+        <v>199</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>337</v>
+        <v>282</v>
       </c>
       <c r="H51" s="7">
-        <v>324</v>
-      </c>
-      <c r="I51" s="7">
-        <v>334718</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" s="7"/>
       <c r="J51" s="7" t="s">
-        <v>338</v>
+        <v>292</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>339</v>
+        <v>292</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>340</v>
+        <v>292</v>
       </c>
       <c r="M51" s="7">
-        <v>1129</v>
+        <v>0</v>
       </c>
       <c r="N51" s="7">
-        <v>1171286</v>
+        <v>0</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>341</v>
+        <v>32</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>342</v>
+        <v>199</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>343</v>
+        <v>282</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -5697,63 +5676,421 @@
         <v>3</v>
       </c>
       <c r="C52" s="7">
+        <v>3</v>
+      </c>
+      <c r="D52" s="7">
+        <v>2471</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H52" s="7">
+        <v>0</v>
+      </c>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="K52" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="L52" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="M52" s="7">
+        <v>3</v>
+      </c>
+      <c r="N52" s="7">
+        <v>2471</v>
+      </c>
+      <c r="O52" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P52" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q52" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" s="7">
+        <v>109</v>
+      </c>
+      <c r="D53" s="7">
+        <v>116198</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="H53" s="7">
+        <v>45</v>
+      </c>
+      <c r="I53" s="7">
+        <v>50339</v>
+      </c>
+      <c r="J53" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="K53" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="L53" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="M53" s="7">
+        <v>154</v>
+      </c>
+      <c r="N53" s="7">
+        <v>166537</v>
+      </c>
+      <c r="O53" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="P53" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q53" s="7" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A54" s="1"/>
+      <c r="B54" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C54" s="7">
+        <v>318</v>
+      </c>
+      <c r="D54" s="7">
+        <v>336513</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="H54" s="7">
+        <v>185</v>
+      </c>
+      <c r="I54" s="7">
+        <v>195345</v>
+      </c>
+      <c r="J54" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="K54" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L54" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="M54" s="7">
+        <v>503</v>
+      </c>
+      <c r="N54" s="7">
+        <v>531858</v>
+      </c>
+      <c r="O54" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="P54" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q54" s="7" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A55" s="1"/>
+      <c r="B55" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C55" s="7">
+        <v>34</v>
+      </c>
+      <c r="D55" s="7">
+        <v>37536</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="H55" s="7">
+        <v>11</v>
+      </c>
+      <c r="I55" s="7">
+        <v>12506</v>
+      </c>
+      <c r="J55" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K55" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="L55" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="M55" s="7">
+        <v>45</v>
+      </c>
+      <c r="N55" s="7">
+        <v>50042</v>
+      </c>
+      <c r="O55" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="P55" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q55" s="7" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A56" s="1"/>
+      <c r="B56" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C56" s="7">
+        <v>35</v>
+      </c>
+      <c r="D56" s="7">
+        <v>36464</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="H56" s="7">
+        <v>56</v>
+      </c>
+      <c r="I56" s="7">
+        <v>58679</v>
+      </c>
+      <c r="J56" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="K56" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="L56" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="M56" s="7">
+        <v>91</v>
+      </c>
+      <c r="N56" s="7">
+        <v>95143</v>
+      </c>
+      <c r="O56" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="P56" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q56" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A57" s="1"/>
+      <c r="B57" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C57" s="7">
+        <v>495</v>
+      </c>
+      <c r="D57" s="7">
+        <v>511318</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="H57" s="7">
+        <v>344</v>
+      </c>
+      <c r="I57" s="7">
+        <v>355977</v>
+      </c>
+      <c r="J57" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="K57" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="L57" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="M57" s="7">
+        <v>839</v>
+      </c>
+      <c r="N57" s="7">
+        <v>867295</v>
+      </c>
+      <c r="O57" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="P57" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q57" s="7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A58" s="1"/>
+      <c r="B58" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C58" s="7">
+        <v>805</v>
+      </c>
+      <c r="D58" s="7">
+        <v>836568</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="H58" s="7">
+        <v>324</v>
+      </c>
+      <c r="I58" s="7">
+        <v>334718</v>
+      </c>
+      <c r="J58" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="K58" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="L58" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="M58" s="7">
+        <v>1129</v>
+      </c>
+      <c r="N58" s="7">
+        <v>1171286</v>
+      </c>
+      <c r="O58" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="P58" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q58" s="7" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A59" s="1"/>
+      <c r="B59" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C59" s="7">
         <v>1796</v>
       </c>
-      <c r="D52" s="7">
+      <c r="D59" s="7">
         <v>1874598</v>
       </c>
-      <c r="E52" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="F52" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G52" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="H52" s="7">
+      <c r="E59" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H59" s="7">
         <v>965</v>
       </c>
-      <c r="I52" s="7">
+      <c r="I59" s="7">
         <v>1007564</v>
       </c>
-      <c r="J52" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="K52" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="L52" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="M52" s="7">
+      <c r="J59" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K59" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L59" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="M59" s="7">
         <v>2761</v>
       </c>
-      <c r="N52" s="7">
+      <c r="N59" s="7">
         <v>2882162</v>
       </c>
-      <c r="O52" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="P52" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q52" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>344</v>
+      <c r="O59" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P59" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q59" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>343</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A18:A24"/>
     <mergeCell ref="A25:A31"/>
     <mergeCell ref="A32:A38"/>
     <mergeCell ref="A39:A45"/>
     <mergeCell ref="A46:A52"/>
+    <mergeCell ref="A53:A59"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5766,8 +6103,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93C21062-314C-4D03-969F-6B1F6B95ED70}">
-  <dimension ref="A1:Q53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1F0234F-A425-4361-874C-536CE2FD7DE0}">
+  <dimension ref="A1:Q60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5783,7 +6120,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5890,13 +6227,13 @@
         <v>3871</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>347</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>348</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -5905,13 +6242,13 @@
         <v>984</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="M4" s="7">
         <v>5</v>
@@ -5923,7 +6260,7 @@
         <v>232</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>16</v>
@@ -5941,13 +6278,13 @@
         <v>22324</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>139</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H5" s="7">
         <v>16</v>
@@ -5959,10 +6296,10 @@
         <v>87</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>353</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>354</v>
       </c>
       <c r="M5" s="7">
         <v>36</v>
@@ -5971,13 +6308,13 @@
         <v>38287</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>356</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5992,13 +6329,13 @@
         <v>6675</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>359</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>360</v>
       </c>
       <c r="H6" s="7">
         <v>2</v>
@@ -6007,13 +6344,13 @@
         <v>1965</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="M6" s="7">
         <v>8</v>
@@ -6022,13 +6359,13 @@
         <v>8640</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>363</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6043,13 +6380,13 @@
         <v>3100</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>366</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>367</v>
       </c>
       <c r="H7" s="7">
         <v>10</v>
@@ -6058,13 +6395,13 @@
         <v>10350</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>369</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>370</v>
       </c>
       <c r="M7" s="7">
         <v>13</v>
@@ -6073,13 +6410,13 @@
         <v>13450</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>371</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6094,13 +6431,13 @@
         <v>16307</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>374</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>375</v>
       </c>
       <c r="H8" s="7">
         <v>22</v>
@@ -6109,13 +6446,13 @@
         <v>21782</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>377</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>378</v>
       </c>
       <c r="M8" s="7">
         <v>38</v>
@@ -6124,13 +6461,13 @@
         <v>38090</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>380</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6145,13 +6482,13 @@
         <v>29626</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>383</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>384</v>
       </c>
       <c r="H9" s="7">
         <v>34</v>
@@ -6160,13 +6497,13 @@
         <v>35779</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>385</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>386</v>
       </c>
       <c r="M9" s="7">
         <v>62</v>
@@ -6175,13 +6512,13 @@
         <v>65406</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>388</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6249,13 +6586,13 @@
         <v>17961</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>151</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H11" s="7">
         <v>14</v>
@@ -6270,7 +6607,7 @@
         <v>74</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="M11" s="7">
         <v>28</v>
@@ -6279,13 +6616,13 @@
         <v>33293</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>394</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6300,13 +6637,13 @@
         <v>77895</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H12" s="7">
         <v>44</v>
@@ -6315,13 +6652,13 @@
         <v>46669</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>399</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>400</v>
       </c>
       <c r="M12" s="7">
         <v>117</v>
@@ -6330,13 +6667,13 @@
         <v>124563</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>402</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6351,13 +6688,13 @@
         <v>14998</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>405</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>406</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -6366,7 +6703,7 @@
         <v>2121</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>32</v>
@@ -6384,10 +6721,10 @@
         <v>203</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>408</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6402,13 +6739,13 @@
         <v>11360</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>410</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>411</v>
       </c>
       <c r="H14" s="7">
         <v>16</v>
@@ -6417,13 +6754,13 @@
         <v>16898</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>413</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>414</v>
       </c>
       <c r="M14" s="7">
         <v>28</v>
@@ -6432,13 +6769,13 @@
         <v>28258</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>415</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6453,13 +6790,13 @@
         <v>86353</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>418</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>419</v>
       </c>
       <c r="H15" s="7">
         <v>95</v>
@@ -6468,13 +6805,13 @@
         <v>103549</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>420</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>421</v>
       </c>
       <c r="M15" s="7">
         <v>181</v>
@@ -6483,13 +6820,13 @@
         <v>189902</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>422</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>423</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6507,10 +6844,10 @@
         <v>124</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>425</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>426</v>
       </c>
       <c r="H16" s="7">
         <v>82</v>
@@ -6519,13 +6856,13 @@
         <v>87538</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>428</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>429</v>
       </c>
       <c r="M16" s="7">
         <v>242</v>
@@ -6534,13 +6871,13 @@
         <v>250635</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>431</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6608,13 +6945,13 @@
         <v>28472</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>433</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>434</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>435</v>
       </c>
       <c r="H18" s="7">
         <v>21</v>
@@ -6623,13 +6960,13 @@
         <v>22507</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>436</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>437</v>
       </c>
       <c r="M18" s="7">
         <v>47</v>
@@ -6638,13 +6975,13 @@
         <v>50979</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>439</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6659,13 +6996,13 @@
         <v>111870</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>441</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>442</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>443</v>
       </c>
       <c r="H19" s="7">
         <v>43</v>
@@ -6674,13 +7011,13 @@
         <v>44781</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>444</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>445</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>446</v>
       </c>
       <c r="M19" s="7">
         <v>150</v>
@@ -6689,13 +7026,13 @@
         <v>156651</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="P19" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>447</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6716,7 +7053,7 @@
         <v>18</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -6731,7 +7068,7 @@
         <v>32</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="M20" s="7">
         <v>12</v>
@@ -6740,13 +7077,13 @@
         <v>13339</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>451</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>452</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6764,10 +7101,10 @@
         <v>14</v>
       </c>
       <c r="F21" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>454</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>455</v>
       </c>
       <c r="H21" s="7">
         <v>15</v>
@@ -6776,13 +7113,13 @@
         <v>15755</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>456</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>457</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>458</v>
       </c>
       <c r="M21" s="7">
         <v>24</v>
@@ -6791,13 +7128,13 @@
         <v>27336</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>459</v>
       </c>
-      <c r="P21" s="7" t="s">
-        <v>460</v>
-      </c>
       <c r="Q21" s="7" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6812,13 +7149,13 @@
         <v>108306</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>461</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>462</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>463</v>
       </c>
       <c r="H22" s="7">
         <v>101</v>
@@ -6827,13 +7164,13 @@
         <v>107470</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>464</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>465</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>466</v>
       </c>
       <c r="M22" s="7">
         <v>208</v>
@@ -6842,13 +7179,13 @@
         <v>215776</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>467</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>468</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6863,13 +7200,13 @@
         <v>148764</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>470</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>471</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>472</v>
       </c>
       <c r="H23" s="7">
         <v>88</v>
@@ -6878,13 +7215,13 @@
         <v>90219</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>473</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>474</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>475</v>
       </c>
       <c r="M23" s="7">
         <v>235</v>
@@ -6893,13 +7230,13 @@
         <v>238983</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>476</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>477</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6967,13 +7304,13 @@
         <v>16936</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>479</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>480</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>481</v>
       </c>
       <c r="H25" s="7">
         <v>17</v>
@@ -6982,13 +7319,13 @@
         <v>20543</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>482</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>483</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>484</v>
       </c>
       <c r="M25" s="7">
         <v>33</v>
@@ -6997,13 +7334,13 @@
         <v>37480</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>33</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7018,13 +7355,13 @@
         <v>89786</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>487</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>488</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>489</v>
       </c>
       <c r="H26" s="7">
         <v>24</v>
@@ -7033,13 +7370,13 @@
         <v>29252</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>490</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>491</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>492</v>
       </c>
       <c r="M26" s="7">
         <v>101</v>
@@ -7048,13 +7385,13 @@
         <v>119038</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>493</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>494</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7069,13 +7406,13 @@
         <v>9145</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>496</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>497</v>
       </c>
       <c r="H27" s="7">
         <v>4</v>
@@ -7084,13 +7421,13 @@
         <v>5243</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="K27" s="7" t="s">
         <v>498</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="L27" s="7" t="s">
         <v>499</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>500</v>
       </c>
       <c r="M27" s="7">
         <v>13</v>
@@ -7099,13 +7436,13 @@
         <v>14388</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="P27" s="7" t="s">
         <v>501</v>
       </c>
-      <c r="P27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>502</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7126,7 +7463,7 @@
         <v>32</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H28" s="7">
         <v>18</v>
@@ -7135,13 +7472,13 @@
         <v>21915</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>505</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>506</v>
       </c>
       <c r="M28" s="7">
         <v>20</v>
@@ -7150,13 +7487,13 @@
         <v>24013</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>94</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7171,13 +7508,13 @@
         <v>123841</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>509</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>510</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>511</v>
       </c>
       <c r="H29" s="7">
         <v>80</v>
@@ -7186,13 +7523,13 @@
         <v>90307</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>512</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>513</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>514</v>
       </c>
       <c r="M29" s="7">
         <v>189</v>
@@ -7201,13 +7538,13 @@
         <v>214147</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>515</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>516</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7225,10 +7562,10 @@
         <v>55</v>
       </c>
       <c r="F30" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>518</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>519</v>
       </c>
       <c r="H30" s="7">
         <v>51</v>
@@ -7237,13 +7574,13 @@
         <v>59032</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>520</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>521</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>522</v>
       </c>
       <c r="M30" s="7">
         <v>161</v>
@@ -7252,13 +7589,13 @@
         <v>182791</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>173</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7326,13 +7663,13 @@
         <v>9493</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>203</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H32" s="7">
         <v>6</v>
@@ -7341,13 +7678,13 @@
         <v>6247</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>527</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>528</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>529</v>
       </c>
       <c r="M32" s="7">
         <v>14</v>
@@ -7356,13 +7693,13 @@
         <v>15740</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>530</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>531</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7377,13 +7714,13 @@
         <v>29965</v>
       </c>
       <c r="E33" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="F33" s="7" t="s">
         <v>533</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="G33" s="7" t="s">
         <v>534</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>535</v>
       </c>
       <c r="H33" s="7">
         <v>10</v>
@@ -7392,13 +7729,13 @@
         <v>12958</v>
       </c>
       <c r="J33" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="K33" s="7" t="s">
         <v>536</v>
       </c>
-      <c r="K33" s="7" t="s">
-        <v>537</v>
-      </c>
       <c r="L33" s="7" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="M33" s="7">
         <v>38</v>
@@ -7407,13 +7744,13 @@
         <v>42923</v>
       </c>
       <c r="O33" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="P33" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="P33" s="7" t="s">
+      <c r="Q33" s="7" t="s">
         <v>539</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -7428,13 +7765,13 @@
         <v>2218</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -7449,7 +7786,7 @@
         <v>199</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="M34" s="7">
         <v>2</v>
@@ -7458,13 +7795,13 @@
         <v>2218</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7497,10 +7834,10 @@
         <v>100</v>
       </c>
       <c r="K35" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>546</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>547</v>
       </c>
       <c r="M35" s="7">
         <v>3</v>
@@ -7509,13 +7846,13 @@
         <v>3296</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="P35" s="7" t="s">
         <v>548</v>
       </c>
-      <c r="P35" s="7" t="s">
-        <v>549</v>
-      </c>
       <c r="Q35" s="7" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7530,13 +7867,13 @@
         <v>38739</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="F36" s="7" t="s">
         <v>550</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="G36" s="7" t="s">
         <v>551</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>552</v>
       </c>
       <c r="H36" s="7">
         <v>21</v>
@@ -7548,10 +7885,10 @@
         <v>175</v>
       </c>
       <c r="K36" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>553</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>554</v>
       </c>
       <c r="M36" s="7">
         <v>58</v>
@@ -7560,13 +7897,13 @@
         <v>60913</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>555</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>556</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7581,13 +7918,13 @@
         <v>67543</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>558</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>559</v>
       </c>
       <c r="H37" s="7">
         <v>22</v>
@@ -7596,13 +7933,13 @@
         <v>23939</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>560</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>561</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>562</v>
       </c>
       <c r="M37" s="7">
         <v>86</v>
@@ -7611,13 +7948,13 @@
         <v>91481</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>563</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>564</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7685,13 +8022,13 @@
         <v>1000</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F39" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H39" s="7">
         <v>1</v>
@@ -7700,13 +8037,13 @@
         <v>891</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="K39" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M39" s="7">
         <v>2</v>
@@ -7715,13 +8052,13 @@
         <v>1890</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="P39" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -7736,13 +8073,13 @@
         <v>1017</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="F40" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H40" s="7">
         <v>0</v>
@@ -7757,7 +8094,7 @@
         <v>199</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="M40" s="7">
         <v>1</v>
@@ -7766,13 +8103,13 @@
         <v>1017</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="P40" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -7793,7 +8130,7 @@
         <v>199</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="H41" s="7">
         <v>0</v>
@@ -7808,7 +8145,7 @@
         <v>199</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="M41" s="7">
         <v>0</v>
@@ -7823,7 +8160,7 @@
         <v>199</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -7844,7 +8181,7 @@
         <v>199</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="H42" s="7">
         <v>0</v>
@@ -7859,7 +8196,7 @@
         <v>199</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="M42" s="7">
         <v>0</v>
@@ -7874,7 +8211,7 @@
         <v>199</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -7895,7 +8232,7 @@
         <v>199</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="H43" s="7">
         <v>2</v>
@@ -7904,13 +8241,13 @@
         <v>1947</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K43" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M43" s="7">
         <v>2</v>
@@ -7919,13 +8256,13 @@
         <v>1947</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="P43" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -7940,13 +8277,13 @@
         <v>1000</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H44" s="7">
         <v>0</v>
@@ -7961,7 +8298,7 @@
         <v>199</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="M44" s="7">
         <v>1</v>
@@ -7970,13 +8307,13 @@
         <v>1000</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="P44" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -8032,55 +8369,49 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>3</v>
+        <v>290</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C46" s="7">
-        <v>69</v>
-      </c>
-      <c r="D46" s="7">
-        <v>77733</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D46" s="7"/>
       <c r="E46" s="7" t="s">
-        <v>579</v>
+        <v>292</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>580</v>
+        <v>292</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>581</v>
+        <v>292</v>
       </c>
       <c r="H46" s="7">
-        <v>60</v>
-      </c>
-      <c r="I46" s="7">
-        <v>66505</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" s="7"/>
       <c r="J46" s="7" t="s">
-        <v>582</v>
+        <v>292</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>42</v>
+        <v>292</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>583</v>
+        <v>292</v>
       </c>
       <c r="M46" s="7">
-        <v>129</v>
-      </c>
-      <c r="N46" s="7">
-        <v>144238</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N46" s="7"/>
       <c r="O46" s="7" t="s">
-        <v>129</v>
+        <v>292</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>584</v>
+        <v>292</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -8089,49 +8420,43 @@
         <v>20</v>
       </c>
       <c r="C47" s="7">
-        <v>306</v>
-      </c>
-      <c r="D47" s="7">
-        <v>332857</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D47" s="7"/>
       <c r="E47" s="7" t="s">
-        <v>585</v>
+        <v>292</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>586</v>
+        <v>292</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>587</v>
+        <v>292</v>
       </c>
       <c r="H47" s="7">
-        <v>137</v>
-      </c>
-      <c r="I47" s="7">
-        <v>149623</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" s="7"/>
       <c r="J47" s="7" t="s">
-        <v>588</v>
+        <v>292</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>589</v>
+        <v>292</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>590</v>
+        <v>292</v>
       </c>
       <c r="M47" s="7">
-        <v>443</v>
-      </c>
-      <c r="N47" s="7">
-        <v>482480</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N47" s="7"/>
       <c r="O47" s="7" t="s">
-        <v>591</v>
+        <v>292</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>592</v>
+        <v>292</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>593</v>
+        <v>292</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -8140,49 +8465,43 @@
         <v>30</v>
       </c>
       <c r="C48" s="7">
-        <v>40</v>
-      </c>
-      <c r="D48" s="7">
-        <v>44228</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D48" s="7"/>
       <c r="E48" s="7" t="s">
-        <v>594</v>
+        <v>292</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>595</v>
+        <v>292</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>409</v>
+        <v>292</v>
       </c>
       <c r="H48" s="7">
-        <v>10</v>
-      </c>
-      <c r="I48" s="7">
-        <v>11476</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" s="7"/>
       <c r="J48" s="7" t="s">
-        <v>596</v>
+        <v>292</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>597</v>
+        <v>292</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>598</v>
+        <v>292</v>
       </c>
       <c r="M48" s="7">
-        <v>50</v>
-      </c>
-      <c r="N48" s="7">
-        <v>55704</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N48" s="7"/>
       <c r="O48" s="7" t="s">
-        <v>599</v>
+        <v>292</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>600</v>
+        <v>292</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>601</v>
+        <v>292</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -8191,49 +8510,43 @@
         <v>40</v>
       </c>
       <c r="C49" s="7">
-        <v>26</v>
-      </c>
-      <c r="D49" s="7">
-        <v>28138</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D49" s="7"/>
       <c r="E49" s="7" t="s">
-        <v>602</v>
+        <v>292</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>603</v>
+        <v>292</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>604</v>
+        <v>292</v>
       </c>
       <c r="H49" s="7">
-        <v>62</v>
-      </c>
-      <c r="I49" s="7">
-        <v>68213</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" s="7"/>
       <c r="J49" s="7" t="s">
-        <v>605</v>
+        <v>292</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>500</v>
+        <v>292</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>606</v>
+        <v>292</v>
       </c>
       <c r="M49" s="7">
-        <v>88</v>
-      </c>
-      <c r="N49" s="7">
-        <v>96351</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N49" s="7"/>
       <c r="O49" s="7" t="s">
-        <v>503</v>
+        <v>292</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>607</v>
+        <v>292</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>608</v>
+        <v>292</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -8242,49 +8555,43 @@
         <v>49</v>
       </c>
       <c r="C50" s="7">
-        <v>355</v>
-      </c>
-      <c r="D50" s="7">
-        <v>373546</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D50" s="7"/>
       <c r="E50" s="7" t="s">
-        <v>609</v>
+        <v>292</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>610</v>
+        <v>292</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>611</v>
+        <v>292</v>
       </c>
       <c r="H50" s="7">
-        <v>321</v>
-      </c>
-      <c r="I50" s="7">
-        <v>347228</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" s="7"/>
       <c r="J50" s="7" t="s">
-        <v>612</v>
+        <v>292</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>613</v>
+        <v>292</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>614</v>
+        <v>292</v>
       </c>
       <c r="M50" s="7">
-        <v>676</v>
-      </c>
-      <c r="N50" s="7">
-        <v>720775</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N50" s="7"/>
       <c r="O50" s="7" t="s">
-        <v>615</v>
+        <v>292</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>616</v>
+        <v>292</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>617</v>
+        <v>292</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -8293,49 +8600,43 @@
         <v>59</v>
       </c>
       <c r="C51" s="7">
-        <v>510</v>
-      </c>
-      <c r="D51" s="7">
-        <v>533788</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D51" s="7"/>
       <c r="E51" s="7" t="s">
-        <v>618</v>
+        <v>292</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>619</v>
+        <v>292</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>620</v>
+        <v>292</v>
       </c>
       <c r="H51" s="7">
-        <v>277</v>
-      </c>
-      <c r="I51" s="7">
-        <v>296507</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" s="7"/>
       <c r="J51" s="7" t="s">
-        <v>621</v>
+        <v>292</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>622</v>
+        <v>292</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>623</v>
+        <v>292</v>
       </c>
       <c r="M51" s="7">
-        <v>787</v>
-      </c>
-      <c r="N51" s="7">
-        <v>830296</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N51" s="7"/>
       <c r="O51" s="7" t="s">
-        <v>624</v>
+        <v>292</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>625</v>
+        <v>292</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>626</v>
+        <v>292</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -8344,63 +8645,417 @@
         <v>3</v>
       </c>
       <c r="C52" s="7">
+        <v>0</v>
+      </c>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="H52" s="7">
+        <v>0</v>
+      </c>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="K52" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="L52" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="M52" s="7">
+        <v>0</v>
+      </c>
+      <c r="N52" s="7"/>
+      <c r="O52" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="P52" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q52" s="7" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" s="7">
+        <v>69</v>
+      </c>
+      <c r="D53" s="7">
+        <v>77733</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="H53" s="7">
+        <v>60</v>
+      </c>
+      <c r="I53" s="7">
+        <v>66505</v>
+      </c>
+      <c r="J53" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="K53" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L53" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="M53" s="7">
+        <v>129</v>
+      </c>
+      <c r="N53" s="7">
+        <v>144238</v>
+      </c>
+      <c r="O53" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P53" s="7" t="s">
+        <v>583</v>
+      </c>
+      <c r="Q53" s="7" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A54" s="1"/>
+      <c r="B54" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C54" s="7">
+        <v>306</v>
+      </c>
+      <c r="D54" s="7">
+        <v>332857</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>585</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="H54" s="7">
+        <v>137</v>
+      </c>
+      <c r="I54" s="7">
+        <v>149623</v>
+      </c>
+      <c r="J54" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="K54" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="L54" s="7" t="s">
+        <v>589</v>
+      </c>
+      <c r="M54" s="7">
+        <v>443</v>
+      </c>
+      <c r="N54" s="7">
+        <v>482480</v>
+      </c>
+      <c r="O54" s="7" t="s">
+        <v>590</v>
+      </c>
+      <c r="P54" s="7" t="s">
+        <v>591</v>
+      </c>
+      <c r="Q54" s="7" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A55" s="1"/>
+      <c r="B55" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C55" s="7">
+        <v>40</v>
+      </c>
+      <c r="D55" s="7">
+        <v>44228</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>593</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="H55" s="7">
+        <v>10</v>
+      </c>
+      <c r="I55" s="7">
+        <v>11476</v>
+      </c>
+      <c r="J55" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="K55" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="L55" s="7" t="s">
+        <v>597</v>
+      </c>
+      <c r="M55" s="7">
+        <v>50</v>
+      </c>
+      <c r="N55" s="7">
+        <v>55704</v>
+      </c>
+      <c r="O55" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="P55" s="7" t="s">
+        <v>599</v>
+      </c>
+      <c r="Q55" s="7" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A56" s="1"/>
+      <c r="B56" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C56" s="7">
+        <v>26</v>
+      </c>
+      <c r="D56" s="7">
+        <v>28138</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="H56" s="7">
+        <v>62</v>
+      </c>
+      <c r="I56" s="7">
+        <v>68213</v>
+      </c>
+      <c r="J56" s="7" t="s">
+        <v>604</v>
+      </c>
+      <c r="K56" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="L56" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="M56" s="7">
+        <v>88</v>
+      </c>
+      <c r="N56" s="7">
+        <v>96351</v>
+      </c>
+      <c r="O56" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="P56" s="7" t="s">
+        <v>606</v>
+      </c>
+      <c r="Q56" s="7" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A57" s="1"/>
+      <c r="B57" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C57" s="7">
+        <v>355</v>
+      </c>
+      <c r="D57" s="7">
+        <v>373546</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>609</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="H57" s="7">
+        <v>321</v>
+      </c>
+      <c r="I57" s="7">
+        <v>347228</v>
+      </c>
+      <c r="J57" s="7" t="s">
+        <v>611</v>
+      </c>
+      <c r="K57" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="L57" s="7" t="s">
+        <v>613</v>
+      </c>
+      <c r="M57" s="7">
+        <v>676</v>
+      </c>
+      <c r="N57" s="7">
+        <v>720775</v>
+      </c>
+      <c r="O57" s="7" t="s">
+        <v>614</v>
+      </c>
+      <c r="P57" s="7" t="s">
+        <v>615</v>
+      </c>
+      <c r="Q57" s="7" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A58" s="1"/>
+      <c r="B58" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C58" s="7">
+        <v>510</v>
+      </c>
+      <c r="D58" s="7">
+        <v>533788</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>617</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>618</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>619</v>
+      </c>
+      <c r="H58" s="7">
+        <v>277</v>
+      </c>
+      <c r="I58" s="7">
+        <v>296507</v>
+      </c>
+      <c r="J58" s="7" t="s">
+        <v>620</v>
+      </c>
+      <c r="K58" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="L58" s="7" t="s">
+        <v>622</v>
+      </c>
+      <c r="M58" s="7">
+        <v>787</v>
+      </c>
+      <c r="N58" s="7">
+        <v>830296</v>
+      </c>
+      <c r="O58" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="P58" s="7" t="s">
+        <v>624</v>
+      </c>
+      <c r="Q58" s="7" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A59" s="1"/>
+      <c r="B59" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C59" s="7">
         <v>1306</v>
       </c>
-      <c r="D52" s="7">
+      <c r="D59" s="7">
         <v>1390290</v>
       </c>
-      <c r="E52" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="F52" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G52" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="H52" s="7">
+      <c r="E59" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H59" s="7">
         <v>867</v>
       </c>
-      <c r="I52" s="7">
+      <c r="I59" s="7">
         <v>939553</v>
       </c>
-      <c r="J52" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="K52" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="L52" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="M52" s="7">
+      <c r="J59" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K59" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L59" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="M59" s="7">
         <v>2173</v>
       </c>
-      <c r="N52" s="7">
+      <c r="N59" s="7">
         <v>2329843</v>
       </c>
-      <c r="O52" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="P52" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q52" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>344</v>
+      <c r="O59" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P59" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q59" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>343</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A18:A24"/>
     <mergeCell ref="A25:A31"/>
     <mergeCell ref="A32:A38"/>
     <mergeCell ref="A39:A45"/>
     <mergeCell ref="A46:A52"/>
+    <mergeCell ref="A53:A59"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -8413,8 +9068,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DD8C2EF-81F9-4EDC-A840-985A63BA677D}">
-  <dimension ref="A1:Q53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC675709-420B-4896-A0B1-139F347A5C1A}">
+  <dimension ref="A1:Q60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -8430,7 +9085,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8537,13 +9192,13 @@
         <v>9913</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>627</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>628</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>629</v>
       </c>
       <c r="H4" s="7">
         <v>14</v>
@@ -8552,13 +9207,13 @@
         <v>14905</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>629</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>630</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>631</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>632</v>
       </c>
       <c r="M4" s="7">
         <v>23</v>
@@ -8567,13 +9222,13 @@
         <v>24819</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>632</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>633</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>634</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>635</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8588,13 +9243,13 @@
         <v>14783</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>635</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>636</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>637</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>638</v>
       </c>
       <c r="H5" s="7">
         <v>16</v>
@@ -8603,13 +9258,13 @@
         <v>16047</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>638</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>639</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>640</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>641</v>
       </c>
       <c r="M5" s="7">
         <v>30</v>
@@ -8618,13 +9273,13 @@
         <v>30830</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>641</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>642</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>643</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>644</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8639,13 +9294,13 @@
         <v>2245</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -8654,13 +9309,13 @@
         <v>996</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="M6" s="7">
         <v>3</v>
@@ -8669,13 +9324,13 @@
         <v>3241</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>153</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8705,13 +9360,13 @@
         <v>8580</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>649</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>650</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>651</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>652</v>
       </c>
       <c r="M7" s="7">
         <v>9</v>
@@ -8720,13 +9375,13 @@
         <v>8580</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -8741,13 +9396,13 @@
         <v>21371</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>653</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>654</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>655</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>656</v>
       </c>
       <c r="H8" s="7">
         <v>22</v>
@@ -8759,10 +9414,10 @@
         <v>224</v>
       </c>
       <c r="K8" s="7" t="s">
+        <v>656</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>657</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>658</v>
       </c>
       <c r="M8" s="7">
         <v>42</v>
@@ -8771,13 +9426,13 @@
         <v>43265</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>658</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>659</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>660</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>661</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -8792,13 +9447,13 @@
         <v>27800</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>661</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>662</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>663</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>664</v>
       </c>
       <c r="H9" s="7">
         <v>25</v>
@@ -8807,10 +9462,10 @@
         <v>23663</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>664</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>665</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>666</v>
       </c>
       <c r="L9" s="7" t="s">
         <v>112</v>
@@ -8822,13 +9477,13 @@
         <v>51462</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>666</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>667</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>668</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>669</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -8896,13 +9551,13 @@
         <v>34419</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>669</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>670</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>530</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>671</v>
       </c>
       <c r="H11" s="7">
         <v>30</v>
@@ -8911,13 +9566,13 @@
         <v>28987</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>671</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>672</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>673</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>674</v>
       </c>
       <c r="M11" s="7">
         <v>60</v>
@@ -8926,13 +9581,13 @@
         <v>63405</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>674</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>675</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>676</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>677</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -8947,13 +9602,13 @@
         <v>67871</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>677</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>678</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>679</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>680</v>
       </c>
       <c r="H12" s="7">
         <v>46</v>
@@ -8962,13 +9617,13 @@
         <v>44217</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>680</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>681</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>682</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>683</v>
       </c>
       <c r="M12" s="7">
         <v>111</v>
@@ -8977,13 +9632,13 @@
         <v>112088</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="P12" s="7" t="s">
+        <v>683</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>684</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>685</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8998,13 +9653,13 @@
         <v>9547</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>75</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -9019,7 +9674,7 @@
         <v>32</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="M13" s="7">
         <v>10</v>
@@ -9028,13 +9683,13 @@
         <v>10648</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>688</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>689</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>690</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>691</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -9049,13 +9704,13 @@
         <v>15317</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H14" s="7">
         <v>21</v>
@@ -9064,13 +9719,13 @@
         <v>20830</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>691</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>692</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>693</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>694</v>
       </c>
       <c r="M14" s="7">
         <v>36</v>
@@ -9082,10 +9737,10 @@
         <v>133</v>
       </c>
       <c r="P14" s="7" t="s">
+        <v>694</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>695</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>696</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -9100,13 +9755,13 @@
         <v>78870</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>696</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>697</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>698</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>699</v>
       </c>
       <c r="H15" s="7">
         <v>91</v>
@@ -9115,13 +9770,13 @@
         <v>88558</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>699</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>700</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>701</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>702</v>
       </c>
       <c r="M15" s="7">
         <v>168</v>
@@ -9130,13 +9785,13 @@
         <v>167428</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>702</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>703</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>704</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>705</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -9151,13 +9806,13 @@
         <v>124650</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>705</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>706</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>568</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>707</v>
       </c>
       <c r="H16" s="7">
         <v>82</v>
@@ -9166,13 +9821,13 @@
         <v>78884</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>707</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>708</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>709</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>710</v>
       </c>
       <c r="M16" s="7">
         <v>201</v>
@@ -9184,10 +9839,10 @@
         <v>266</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>710</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>711</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>712</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -9255,13 +9910,13 @@
         <v>42391</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>712</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>713</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>582</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>714</v>
       </c>
       <c r="H18" s="7">
         <v>30</v>
@@ -9270,13 +9925,13 @@
         <v>30387</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="K18" s="7" t="s">
+        <v>714</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>715</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>716</v>
       </c>
       <c r="M18" s="7">
         <v>68</v>
@@ -9285,13 +9940,13 @@
         <v>72778</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>716</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>717</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>718</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>719</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -9306,13 +9961,13 @@
         <v>80774</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>719</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>720</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>721</v>
-      </c>
       <c r="G19" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H19" s="7">
         <v>49</v>
@@ -9321,13 +9976,13 @@
         <v>49627</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>721</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>722</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>723</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>724</v>
       </c>
       <c r="M19" s="7">
         <v>123</v>
@@ -9336,13 +9991,13 @@
         <v>130401</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>724</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>725</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>726</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>727</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -9357,13 +10012,13 @@
         <v>4428</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>727</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>728</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>729</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>730</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -9372,13 +10027,13 @@
         <v>1977</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="M20" s="7">
         <v>7</v>
@@ -9387,10 +10042,10 @@
         <v>6405</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>732</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>733</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>734</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>197</v>
@@ -9414,7 +10069,7 @@
         <v>148</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H21" s="7">
         <v>21</v>
@@ -9426,10 +10081,10 @@
         <v>73</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="M21" s="7">
         <v>27</v>
@@ -9438,13 +10093,13 @@
         <v>27440</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>154</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -9459,13 +10114,13 @@
         <v>126523</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>736</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>737</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>738</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>739</v>
       </c>
       <c r="H22" s="7">
         <v>111</v>
@@ -9474,13 +10129,13 @@
         <v>106724</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>739</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>740</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>741</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>742</v>
       </c>
       <c r="M22" s="7">
         <v>234</v>
@@ -9489,13 +10144,13 @@
         <v>233247</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>742</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>743</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>744</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9510,13 +10165,13 @@
         <v>170715</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>745</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>746</v>
       </c>
-      <c r="F23" s="7" t="s">
-        <v>747</v>
-      </c>
       <c r="G23" s="7" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H23" s="7">
         <v>93</v>
@@ -9525,13 +10180,13 @@
         <v>94680</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>747</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>748</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>749</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>750</v>
       </c>
       <c r="M23" s="7">
         <v>256</v>
@@ -9540,13 +10195,13 @@
         <v>265396</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>750</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>751</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>752</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>753</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -9614,13 +10269,13 @@
         <v>40492</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>187</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H25" s="7">
         <v>28</v>
@@ -9629,13 +10284,13 @@
         <v>31305</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>754</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>755</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>756</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>757</v>
       </c>
       <c r="M25" s="7">
         <v>62</v>
@@ -9644,13 +10299,13 @@
         <v>71797</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>757</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>758</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>759</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>760</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9665,13 +10320,13 @@
         <v>57236</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>760</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>761</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>762</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>763</v>
       </c>
       <c r="H26" s="7">
         <v>32</v>
@@ -9680,13 +10335,13 @@
         <v>34547</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>763</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>764</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>765</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>766</v>
       </c>
       <c r="M26" s="7">
         <v>84</v>
@@ -9695,13 +10350,13 @@
         <v>91783</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9716,13 +10371,13 @@
         <v>9777</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>767</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>768</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="G27" s="7" t="s">
         <v>769</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>770</v>
       </c>
       <c r="H27" s="7">
         <v>2</v>
@@ -9731,13 +10386,13 @@
         <v>2080</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="M27" s="7">
         <v>10</v>
@@ -9746,10 +10401,10 @@
         <v>11858</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>771</v>
+      </c>
+      <c r="P27" s="7" t="s">
         <v>772</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>773</v>
       </c>
       <c r="Q27" s="7" t="s">
         <v>210</v>
@@ -9767,13 +10422,13 @@
         <v>9377</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>773</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>774</v>
       </c>
-      <c r="F28" s="7" t="s">
-        <v>775</v>
-      </c>
       <c r="G28" s="7" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="H28" s="7">
         <v>17</v>
@@ -9782,13 +10437,13 @@
         <v>19428</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>775</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>607</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>776</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>608</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>777</v>
       </c>
       <c r="M28" s="7">
         <v>25</v>
@@ -9797,13 +10452,13 @@
         <v>28805</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>777</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>778</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>779</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>780</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -9818,13 +10473,13 @@
         <v>98415</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>780</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>781</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>782</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>783</v>
       </c>
       <c r="H29" s="7">
         <v>70</v>
@@ -9833,13 +10488,13 @@
         <v>77195</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>783</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>784</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>785</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>786</v>
       </c>
       <c r="M29" s="7">
         <v>159</v>
@@ -9848,13 +10503,13 @@
         <v>175610</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>786</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>787</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>788</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>789</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9869,13 +10524,13 @@
         <v>131112</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>789</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>790</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>791</v>
       </c>
       <c r="H30" s="7">
         <v>59</v>
@@ -9884,13 +10539,13 @@
         <v>62963</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>791</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>792</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>793</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>794</v>
       </c>
       <c r="M30" s="7">
         <v>179</v>
@@ -9899,13 +10554,13 @@
         <v>194075</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>794</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>795</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>796</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9973,13 +10628,13 @@
         <v>19871</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>797</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>798</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>799</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>800</v>
       </c>
       <c r="H32" s="7">
         <v>12</v>
@@ -9988,13 +10643,13 @@
         <v>14098</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>800</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>801</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>802</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>803</v>
       </c>
       <c r="M32" s="7">
         <v>29</v>
@@ -10003,13 +10658,13 @@
         <v>33968</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>803</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>804</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>805</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>806</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -10024,13 +10679,13 @@
         <v>31343</v>
       </c>
       <c r="E33" s="7" t="s">
+        <v>806</v>
+      </c>
+      <c r="F33" s="7" t="s">
         <v>807</v>
       </c>
-      <c r="F33" s="7" t="s">
-        <v>808</v>
-      </c>
       <c r="G33" s="7" t="s">
-        <v>809</v>
+        <v>281</v>
       </c>
       <c r="H33" s="7">
         <v>15</v>
@@ -10039,13 +10694,13 @@
         <v>17138</v>
       </c>
       <c r="J33" s="7" t="s">
+        <v>808</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>809</v>
+      </c>
+      <c r="L33" s="7" t="s">
         <v>810</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>811</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>812</v>
       </c>
       <c r="M33" s="7">
         <v>43</v>
@@ -10054,13 +10709,13 @@
         <v>48481</v>
       </c>
       <c r="O33" s="7" t="s">
+        <v>811</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>812</v>
+      </c>
+      <c r="Q33" s="7" t="s">
         <v>813</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>814</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>815</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -10081,7 +10736,7 @@
         <v>199</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H34" s="7">
         <v>1</v>
@@ -10090,7 +10745,7 @@
         <v>1101</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>32</v>
@@ -10105,7 +10760,7 @@
         <v>1101</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>32</v>
@@ -10132,7 +10787,7 @@
         <v>199</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H35" s="7">
         <v>3</v>
@@ -10141,13 +10796,13 @@
         <v>4012</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>816</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>817</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>818</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>819</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>820</v>
       </c>
       <c r="M35" s="7">
         <v>3</v>
@@ -10156,10 +10811,10 @@
         <v>4012</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="Q35" s="7" t="s">
         <v>33</v>
@@ -10177,13 +10832,13 @@
         <v>53728</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>820</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>821</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>822</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>823</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>824</v>
       </c>
       <c r="H36" s="7">
         <v>31</v>
@@ -10192,13 +10847,13 @@
         <v>37294</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>823</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>824</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>825</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>826</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>827</v>
       </c>
       <c r="M36" s="7">
         <v>77</v>
@@ -10207,13 +10862,13 @@
         <v>91022</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>826</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>827</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>828</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>829</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>830</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10228,13 +10883,13 @@
         <v>56606</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="H37" s="7">
         <v>26</v>
@@ -10246,10 +10901,10 @@
         <v>161</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="M37" s="7">
         <v>77</v>
@@ -10258,13 +10913,13 @@
         <v>86782</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>833</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>834</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>835</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>836</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>837</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10338,7 +10993,7 @@
         <v>199</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>573</v>
+        <v>836</v>
       </c>
       <c r="H39" s="7">
         <v>0</v>
@@ -10353,7 +11008,7 @@
         <v>199</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="M39" s="7">
         <v>0</v>
@@ -10368,7 +11023,7 @@
         <v>199</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>684</v>
+        <v>576</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -10389,7 +11044,7 @@
         <v>199</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>573</v>
+        <v>836</v>
       </c>
       <c r="H40" s="7">
         <v>0</v>
@@ -10404,7 +11059,7 @@
         <v>199</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="M40" s="7">
         <v>0</v>
@@ -10419,7 +11074,7 @@
         <v>199</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>684</v>
+        <v>576</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -10440,7 +11095,7 @@
         <v>199</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>573</v>
+        <v>836</v>
       </c>
       <c r="H41" s="7">
         <v>0</v>
@@ -10455,7 +11110,7 @@
         <v>199</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="M41" s="7">
         <v>0</v>
@@ -10470,7 +11125,7 @@
         <v>199</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>684</v>
+        <v>576</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -10491,7 +11146,7 @@
         <v>199</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>573</v>
+        <v>836</v>
       </c>
       <c r="H42" s="7">
         <v>0</v>
@@ -10506,7 +11161,7 @@
         <v>199</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="M42" s="7">
         <v>0</v>
@@ -10521,7 +11176,7 @@
         <v>199</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>684</v>
+        <v>576</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -10536,13 +11191,13 @@
         <v>2286</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="F43" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="H43" s="7">
         <v>1</v>
@@ -10551,13 +11206,13 @@
         <v>1183</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="K43" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="M43" s="7">
         <v>3</v>
@@ -10566,13 +11221,13 @@
         <v>3469</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>844</v>
+        <v>32</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -10581,19 +11236,19 @@
         <v>59</v>
       </c>
       <c r="C44" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D44" s="7">
-        <v>3699</v>
+        <v>2904</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>764</v>
+        <v>844</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H44" s="7">
         <v>4</v>
@@ -10602,28 +11257,28 @@
         <v>4007</v>
       </c>
       <c r="J44" s="7" t="s">
+        <v>845</v>
+      </c>
+      <c r="K44" s="7" t="s">
+        <v>846</v>
+      </c>
+      <c r="L44" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="M44" s="7">
+        <v>7</v>
+      </c>
+      <c r="N44" s="7">
+        <v>6912</v>
+      </c>
+      <c r="O44" s="7" t="s">
         <v>847</v>
       </c>
-      <c r="K44" s="7" t="s">
+      <c r="P44" s="7" t="s">
         <v>848</v>
       </c>
-      <c r="L44" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="M44" s="7">
-        <v>8</v>
-      </c>
-      <c r="N44" s="7">
-        <v>7707</v>
-      </c>
-      <c r="O44" s="7" t="s">
-        <v>849</v>
-      </c>
-      <c r="P44" s="7" t="s">
-        <v>850</v>
-      </c>
       <c r="Q44" s="7" t="s">
-        <v>851</v>
+        <v>280</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -10632,10 +11287,10 @@
         <v>3</v>
       </c>
       <c r="C45" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D45" s="7">
-        <v>5985</v>
+        <v>5190</v>
       </c>
       <c r="E45" s="7" t="s">
         <v>69</v>
@@ -10662,10 +11317,10 @@
         <v>69</v>
       </c>
       <c r="M45" s="7">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N45" s="7">
-        <v>11176</v>
+        <v>10381</v>
       </c>
       <c r="O45" s="7" t="s">
         <v>69</v>
@@ -10679,55 +11334,53 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>3</v>
+        <v>290</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C46" s="7">
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="D46" s="7">
-        <v>147085</v>
+        <v>0</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>852</v>
+        <v>32</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>853</v>
+        <v>199</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>854</v>
+        <v>278</v>
       </c>
       <c r="H46" s="7">
-        <v>114</v>
-      </c>
-      <c r="I46" s="7">
-        <v>119682</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" s="7"/>
       <c r="J46" s="7" t="s">
-        <v>526</v>
+        <v>292</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>855</v>
+        <v>292</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>856</v>
+        <v>292</v>
       </c>
       <c r="M46" s="7">
-        <v>242</v>
+        <v>0</v>
       </c>
       <c r="N46" s="7">
-        <v>266767</v>
+        <v>0</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>857</v>
+        <v>32</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>858</v>
+        <v>199</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>859</v>
+        <v>278</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -10736,49 +11389,47 @@
         <v>20</v>
       </c>
       <c r="C47" s="7">
-        <v>233</v>
+        <v>0</v>
       </c>
       <c r="D47" s="7">
-        <v>252006</v>
+        <v>0</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>639</v>
+        <v>32</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>860</v>
+        <v>199</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>861</v>
+        <v>278</v>
       </c>
       <c r="H47" s="7">
-        <v>158</v>
-      </c>
-      <c r="I47" s="7">
-        <v>161577</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" s="7"/>
       <c r="J47" s="7" t="s">
-        <v>862</v>
+        <v>292</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>863</v>
+        <v>292</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>864</v>
+        <v>292</v>
       </c>
       <c r="M47" s="7">
-        <v>391</v>
+        <v>0</v>
       </c>
       <c r="N47" s="7">
-        <v>413583</v>
+        <v>0</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>865</v>
+        <v>32</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>866</v>
+        <v>199</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>867</v>
+        <v>278</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -10787,49 +11438,47 @@
         <v>30</v>
       </c>
       <c r="C48" s="7">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="D48" s="7">
-        <v>25997</v>
+        <v>0</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>868</v>
+        <v>32</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>774</v>
+        <v>278</v>
       </c>
       <c r="H48" s="7">
-        <v>7</v>
-      </c>
-      <c r="I48" s="7">
-        <v>7256</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" s="7"/>
       <c r="J48" s="7" t="s">
-        <v>869</v>
+        <v>292</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>870</v>
+        <v>292</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>319</v>
+        <v>292</v>
       </c>
       <c r="M48" s="7">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="N48" s="7">
-        <v>33253</v>
+        <v>0</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>319</v>
+        <v>32</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>150</v>
+        <v>199</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>871</v>
+        <v>278</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -10838,49 +11487,47 @@
         <v>40</v>
       </c>
       <c r="C49" s="7">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="D49" s="7">
-        <v>31002</v>
+        <v>0</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>317</v>
+        <v>32</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>872</v>
+        <v>199</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>873</v>
+        <v>278</v>
       </c>
       <c r="H49" s="7">
-        <v>71</v>
-      </c>
-      <c r="I49" s="7">
-        <v>73983</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" s="7"/>
       <c r="J49" s="7" t="s">
-        <v>874</v>
+        <v>292</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>875</v>
+        <v>292</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>876</v>
+        <v>292</v>
       </c>
       <c r="M49" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N49" s="7">
-        <v>104985</v>
+        <v>0</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>877</v>
+        <v>32</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>44</v>
+        <v>278</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -10889,49 +11536,47 @@
         <v>49</v>
       </c>
       <c r="C50" s="7">
-        <v>357</v>
+        <v>0</v>
       </c>
       <c r="D50" s="7">
-        <v>381193</v>
+        <v>0</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>878</v>
+        <v>32</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>680</v>
+        <v>199</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>879</v>
+        <v>278</v>
       </c>
       <c r="H50" s="7">
-        <v>326</v>
-      </c>
-      <c r="I50" s="7">
-        <v>332848</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" s="7"/>
       <c r="J50" s="7" t="s">
-        <v>880</v>
+        <v>292</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>242</v>
+        <v>292</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>881</v>
+        <v>292</v>
       </c>
       <c r="M50" s="7">
-        <v>683</v>
+        <v>0</v>
       </c>
       <c r="N50" s="7">
-        <v>714041</v>
+        <v>0</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>357</v>
+        <v>32</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>333</v>
+        <v>199</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>882</v>
+        <v>278</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -10940,49 +11585,47 @@
         <v>59</v>
       </c>
       <c r="C51" s="7">
-        <v>483</v>
+        <v>1</v>
       </c>
       <c r="D51" s="7">
-        <v>514582</v>
+        <v>795</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>883</v>
+        <v>280</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>884</v>
+        <v>284</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>885</v>
+        <v>69</v>
       </c>
       <c r="H51" s="7">
-        <v>289</v>
-      </c>
-      <c r="I51" s="7">
-        <v>294373</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" s="7"/>
       <c r="J51" s="7" t="s">
-        <v>638</v>
+        <v>292</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>886</v>
+        <v>292</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>887</v>
+        <v>292</v>
       </c>
       <c r="M51" s="7">
-        <v>772</v>
+        <v>1</v>
       </c>
       <c r="N51" s="7">
-        <v>808955</v>
+        <v>795</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>794</v>
+        <v>280</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>888</v>
+        <v>284</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>889</v>
+        <v>69</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -10991,63 +11634,421 @@
         <v>3</v>
       </c>
       <c r="C52" s="7">
+        <v>1</v>
+      </c>
+      <c r="D52" s="7">
+        <v>795</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H52" s="7">
+        <v>0</v>
+      </c>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="K52" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="L52" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="M52" s="7">
+        <v>1</v>
+      </c>
+      <c r="N52" s="7">
+        <v>795</v>
+      </c>
+      <c r="O52" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P52" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q52" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" s="7">
+        <v>128</v>
+      </c>
+      <c r="D53" s="7">
+        <v>147085</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>849</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>850</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>851</v>
+      </c>
+      <c r="H53" s="7">
+        <v>114</v>
+      </c>
+      <c r="I53" s="7">
+        <v>119682</v>
+      </c>
+      <c r="J53" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="K53" s="7" t="s">
+        <v>852</v>
+      </c>
+      <c r="L53" s="7" t="s">
+        <v>853</v>
+      </c>
+      <c r="M53" s="7">
+        <v>242</v>
+      </c>
+      <c r="N53" s="7">
+        <v>266767</v>
+      </c>
+      <c r="O53" s="7" t="s">
+        <v>854</v>
+      </c>
+      <c r="P53" s="7" t="s">
+        <v>855</v>
+      </c>
+      <c r="Q53" s="7" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A54" s="1"/>
+      <c r="B54" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C54" s="7">
+        <v>233</v>
+      </c>
+      <c r="D54" s="7">
+        <v>252006</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>638</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>857</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>858</v>
+      </c>
+      <c r="H54" s="7">
+        <v>158</v>
+      </c>
+      <c r="I54" s="7">
+        <v>161577</v>
+      </c>
+      <c r="J54" s="7" t="s">
+        <v>859</v>
+      </c>
+      <c r="K54" s="7" t="s">
+        <v>860</v>
+      </c>
+      <c r="L54" s="7" t="s">
+        <v>861</v>
+      </c>
+      <c r="M54" s="7">
+        <v>391</v>
+      </c>
+      <c r="N54" s="7">
+        <v>413583</v>
+      </c>
+      <c r="O54" s="7" t="s">
+        <v>862</v>
+      </c>
+      <c r="P54" s="7" t="s">
+        <v>863</v>
+      </c>
+      <c r="Q54" s="7" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A55" s="1"/>
+      <c r="B55" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C55" s="7">
+        <v>24</v>
+      </c>
+      <c r="D55" s="7">
+        <v>25997</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>865</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>773</v>
+      </c>
+      <c r="H55" s="7">
+        <v>7</v>
+      </c>
+      <c r="I55" s="7">
+        <v>7256</v>
+      </c>
+      <c r="J55" s="7" t="s">
+        <v>866</v>
+      </c>
+      <c r="K55" s="7" t="s">
+        <v>867</v>
+      </c>
+      <c r="L55" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="M55" s="7">
+        <v>31</v>
+      </c>
+      <c r="N55" s="7">
+        <v>33253</v>
+      </c>
+      <c r="O55" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="P55" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q55" s="7" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A56" s="1"/>
+      <c r="B56" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C56" s="7">
+        <v>29</v>
+      </c>
+      <c r="D56" s="7">
+        <v>31002</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>869</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>870</v>
+      </c>
+      <c r="H56" s="7">
+        <v>71</v>
+      </c>
+      <c r="I56" s="7">
+        <v>73983</v>
+      </c>
+      <c r="J56" s="7" t="s">
+        <v>871</v>
+      </c>
+      <c r="K56" s="7" t="s">
+        <v>872</v>
+      </c>
+      <c r="L56" s="7" t="s">
+        <v>873</v>
+      </c>
+      <c r="M56" s="7">
+        <v>100</v>
+      </c>
+      <c r="N56" s="7">
+        <v>104985</v>
+      </c>
+      <c r="O56" s="7" t="s">
+        <v>874</v>
+      </c>
+      <c r="P56" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q56" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A57" s="1"/>
+      <c r="B57" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C57" s="7">
+        <v>357</v>
+      </c>
+      <c r="D57" s="7">
+        <v>381193</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>875</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>679</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>876</v>
+      </c>
+      <c r="H57" s="7">
+        <v>326</v>
+      </c>
+      <c r="I57" s="7">
+        <v>332848</v>
+      </c>
+      <c r="J57" s="7" t="s">
+        <v>877</v>
+      </c>
+      <c r="K57" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="L57" s="7" t="s">
+        <v>878</v>
+      </c>
+      <c r="M57" s="7">
+        <v>683</v>
+      </c>
+      <c r="N57" s="7">
+        <v>714041</v>
+      </c>
+      <c r="O57" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="P57" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q57" s="7" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A58" s="1"/>
+      <c r="B58" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C58" s="7">
+        <v>483</v>
+      </c>
+      <c r="D58" s="7">
+        <v>514582</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>880</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>881</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>882</v>
+      </c>
+      <c r="H58" s="7">
+        <v>289</v>
+      </c>
+      <c r="I58" s="7">
+        <v>294373</v>
+      </c>
+      <c r="J58" s="7" t="s">
+        <v>637</v>
+      </c>
+      <c r="K58" s="7" t="s">
+        <v>883</v>
+      </c>
+      <c r="L58" s="7" t="s">
+        <v>884</v>
+      </c>
+      <c r="M58" s="7">
+        <v>772</v>
+      </c>
+      <c r="N58" s="7">
+        <v>808955</v>
+      </c>
+      <c r="O58" s="7" t="s">
+        <v>793</v>
+      </c>
+      <c r="P58" s="7" t="s">
+        <v>885</v>
+      </c>
+      <c r="Q58" s="7" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A59" s="1"/>
+      <c r="B59" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C59" s="7">
         <v>1254</v>
       </c>
-      <c r="D52" s="7">
+      <c r="D59" s="7">
         <v>1351865</v>
       </c>
-      <c r="E52" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="F52" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G52" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="H52" s="7">
+      <c r="E59" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H59" s="7">
         <v>965</v>
       </c>
-      <c r="I52" s="7">
+      <c r="I59" s="7">
         <v>989719</v>
       </c>
-      <c r="J52" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="K52" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="L52" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="M52" s="7">
+      <c r="J59" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K59" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L59" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="M59" s="7">
         <v>2219</v>
       </c>
-      <c r="N52" s="7">
+      <c r="N59" s="7">
         <v>2341584</v>
       </c>
-      <c r="O52" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="P52" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q52" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>344</v>
+      <c r="O59" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P59" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q59" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>343</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A18:A24"/>
     <mergeCell ref="A25:A31"/>
     <mergeCell ref="A32:A38"/>
     <mergeCell ref="A39:A45"/>
     <mergeCell ref="A46:A52"/>
+    <mergeCell ref="A53:A59"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
